--- a/data/teacher/Anderson J..xlsx
+++ b/data/teacher/Anderson J..xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['MEC-3B-M. A. Comp; Cad / CAM', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-M. A. Comp; Cad / CAM', -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-M. A. Comp; Cad / CAM', -, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['MEC-3B-M. A. Comp; Cad / CAM', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['ELM-2NA-CAM', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-CAM']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-CAM', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-CAM', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">

--- a/data/teacher/Anderson J..xlsx
+++ b/data/teacher/Anderson J..xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-M. A. Comp; Cad / CAM']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-M. A. Comp; Cad / CAM', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-M. A. Comp; Cad / CAM', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Anderson J..xlsx
+++ b/data/teacher/Anderson J..xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MEC-3B-M. A. Comp; Cad / CAM</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>MEC-3B-M. A. Comp; Cad / CAM</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Anderson J..xlsx
+++ b/data/teacher/Anderson J..xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,17 +510,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MEC-3B-M. A. Comp; Cad / CAM</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3B-M. A. Comp; Cad / CAM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>MEC-1A-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Anderson J..xlsx
+++ b/data/teacher/Anderson J..xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MEC-3B-M. A. Comp; Cad / CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEC-1A-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
